--- a/qa/export.xlsx
+++ b/qa/export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>S. No.</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Amount(Rs)</t>
   </si>
   <si>
+    <t>Gift Message To</t>
+  </si>
+  <si>
     <t>Gift Message</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t>Product Selection</t>
   </si>
   <si>
-    <t>2017-11-30 15:30</t>
+    <t>2017-12-05 18:28</t>
   </si>
   <si>
     <t>Rohit  Singh</t>
@@ -109,50 +112,147 @@
     <t>8373934770</t>
   </si>
   <si>
+    <t>rohit0904singh@gmail.com</t>
+  </si>
+  <si>
+    <t>Cash On Delivery</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Address 
+1/4, Najafgarh Rd, Block 1, Tilak Nagar New Delhi </t>
+  </si>
+  <si>
+    <t>sadas dasd asd as</t>
+  </si>
+  <si>
+    <t>Brain Power</t>
+  </si>
+  <si>
+    <t>Amla Instant Drink Powder - Test Product</t>
+  </si>
+  <si>
+    <t>Assorted Instant Drink Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Cinnamon Granola Bar (3 Bars) </t>
+  </si>
+  <si>
+    <t>All in One Mixture</t>
+  </si>
+  <si>
+    <t>Chana Malai (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>Cheese and Tomato Fox Nuts (Weight: 70 Grams)</t>
+  </si>
+  <si>
+    <t>Cheese and Oregano Cashew Bagel Mix (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Apricot (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>All in One Mixture -Test Product 2</t>
+  </si>
+  <si>
+    <t>2017-12-06 16:17</t>
+  </si>
+  <si>
+    <t>sanjeevan sharma</t>
+  </si>
+  <si>
+    <t>9999226444</t>
+  </si>
+  <si>
+    <t>sanjeevan.dignitas@gmail.com</t>
+  </si>
+  <si>
+    <t>uttam nagar Delhi</t>
+  </si>
+  <si>
+    <t>2017-12-06 16:49</t>
+  </si>
+  <si>
+    <t>Murphy Daria</t>
+  </si>
+  <si>
+    <t>fringilla@Lorem.org</t>
+  </si>
+  <si>
+    <t>Bhopal</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>P.O. Box 869, 9136 Eu, Rd. test address</t>
+  </si>
+  <si>
+    <t>2017-12-06 16:57</t>
+  </si>
+  <si>
+    <t>Coupon (Evo3)</t>
+  </si>
+  <si>
+    <t>2017-12-06 18:17</t>
+  </si>
+  <si>
+    <t>2017-12-06 18:40</t>
+  </si>
+  <si>
+    <t>2017-12-06 18:45</t>
+  </si>
+  <si>
+    <t>2017-12-06 19:01</t>
+  </si>
+  <si>
+    <t>2017-12-06 19:16</t>
+  </si>
+  <si>
+    <t>2017-12-07 10:47</t>
+  </si>
+  <si>
+    <t>2017-12-07 11:48</t>
+  </si>
+  <si>
+    <t>2017-12-07 12:32</t>
+  </si>
+  <si>
+    <t>2017-12-07 12:46</t>
+  </si>
+  <si>
+    <t>2017-12-07 13:04</t>
+  </si>
+  <si>
+    <t>2017-12-07 13:11</t>
+  </si>
+  <si>
+    <t>2017-12-07 13:13</t>
+  </si>
+  <si>
+    <t>2017-12-07 14:32</t>
+  </si>
+  <si>
     <t>rohit.dignitas@gmail.com</t>
   </si>
   <si>
-    <t>Cash On Delivery</t>
-  </si>
-  <si>
     <t>West Chicago</t>
-  </si>
-  <si>
-    <t>Delhi</t>
   </si>
   <si>
     <t xml:space="preserve">514 S. Magnolia St.  Orlando, FL 32806
 44 Shirley Ave.  West Chicago, IL 60185 Delhi </t>
   </si>
   <si>
-    <t>All in One Mixture</t>
-  </si>
-  <si>
-    <t>2017-12-01 14:54</t>
-  </si>
-  <si>
-    <t>Coupon (code111)</t>
-  </si>
-  <si>
-    <t>Brain Power</t>
-  </si>
-  <si>
-    <t>Amla Instant Drink Powder - Test Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple Cinnamon Granola Bar (3 Bars) </t>
-  </si>
-  <si>
-    <t>Chana Malai (Weight: 100 Grams)</t>
-  </si>
-  <si>
-    <t>Cheese and Oregano Cashew Bagel Mix (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Apricot (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>All in One Mixture -Test Product 2</t>
+    <t xml:space="preserve"> you </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hi </t>
   </si>
   <si>
     <t>Get Energized</t>
@@ -167,16 +267,88 @@
     <t>sada aam</t>
   </si>
   <si>
-    <t>2017-12-04 20:06</t>
-  </si>
-  <si>
-    <t>Cheese and Tomato Fox Nuts (Weight: 70 Grams)</t>
-  </si>
-  <si>
-    <t>Chipotle Fox Nuts (Weight: 70 Grams)</t>
-  </si>
-  <si>
-    <t>2017-12-04 20:23</t>
+    <t>2017-12-07 15:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>2017-12-07 16:06</t>
+  </si>
+  <si>
+    <t>Coupon (happy10)</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:19</t>
+  </si>
+  <si>
+    <t>Coupon (comeback15)</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:20</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:32</t>
+  </si>
+  <si>
+    <t>Coupon (harshita10)</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:33</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:34</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:35</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:36</t>
+  </si>
+  <si>
+    <t>Coupon (firstorder)</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:37</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:38</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:39</t>
+  </si>
+  <si>
+    <t>2017-12-07 16:40</t>
+  </si>
+  <si>
+    <t>Coupon (Enjoy)</t>
+  </si>
+  <si>
+    <t>2017-12-07 17:57</t>
+  </si>
+  <si>
+    <t>Sanju Test</t>
+  </si>
+  <si>
+    <t>sanjeevansharma@hotmail.com</t>
+  </si>
+  <si>
+    <t>new delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttam nagar </t>
+  </si>
+  <si>
+    <t>2017-12-07 18:06</t>
+  </si>
+  <si>
+    <t>Coupon (evo3)</t>
+  </si>
+  <si>
+    <t>2017-12-08 10:37</t>
+  </si>
+  <si>
+    <t>2017-12-08 10:39</t>
   </si>
   <si>
     <t>Mansi Test</t>
@@ -188,6 +360,36 @@
     <t>Tak Hi</t>
   </si>
   <si>
+    <t>Erfhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hjj </t>
+  </si>
+  <si>
+    <t>Rolled Oats Coconut Flapjack</t>
+  </si>
+  <si>
+    <t>2017-12-08 12:18</t>
+  </si>
+  <si>
+    <t>2017-12-08 12:59</t>
+  </si>
+  <si>
+    <t>2017-12-08 13:08</t>
+  </si>
+  <si>
+    <t>2017-12-08 13:28</t>
+  </si>
+  <si>
+    <t>2017-12-08 13:43</t>
+  </si>
+  <si>
+    <t>2017-12-08 13:45</t>
+  </si>
+  <si>
+    <t>2017-12-08 17:17</t>
+  </si>
+  <si>
     <t>Date Added</t>
   </si>
   <si>
@@ -197,46 +399,62 @@
     <t>Customer Email</t>
   </si>
   <si>
-    <t>2017-11-30 17:38</t>
-  </si>
-  <si>
-    <t>Anil sharma</t>
-  </si>
-  <si>
-    <t>anela.kumar@gmail.com</t>
-  </si>
-  <si>
-    <t>2017-12-05 12:57</t>
-  </si>
-  <si>
-    <t>2017-12-05 09:40</t>
-  </si>
-  <si>
-    <t>2017-11-29 15:12</t>
-  </si>
-  <si>
-    <t>sanjeevan sharma</t>
-  </si>
-  <si>
-    <t>9999226444</t>
-  </si>
-  <si>
-    <t>sanjeevan.dignitas@gmail.com</t>
+    <t>2017-12-08 18:00</t>
+  </si>
+  <si>
+    <t>rohit singh</t>
+  </si>
+  <si>
+    <t>rohit.dignitas100@gmail.com</t>
+  </si>
+  <si>
+    <t>2017-12-08 17:53</t>
+  </si>
+  <si>
+    <t>2017-12-08 11:38</t>
+  </si>
+  <si>
+    <t>2017-12-07 11:11</t>
+  </si>
+  <si>
+    <t>Neha Anand</t>
+  </si>
+  <si>
+    <t>nehaanand141089@yahoo.com</t>
+  </si>
+  <si>
+    <t>2017-12-07 18:50</t>
+  </si>
+  <si>
+    <t>2017-12-08 17:52</t>
+  </si>
+  <si>
+    <t>2017-12-08 17:59</t>
+  </si>
+  <si>
+    <t>2017-12-06 16:35</t>
+  </si>
+  <si>
+    <t>9910988685</t>
   </si>
   <si>
     <t>Online Payment</t>
   </si>
   <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>uttam nagar Delhi</t>
-  </si>
-  <si>
-    <t>Berry Go Round</t>
-  </si>
-  <si>
-    <t>2017-12-05 13:11</t>
+    <t>CA 41/2 
+Tagore Garden Delhi</t>
+  </si>
+  <si>
+    <t>2017-12-07 11:12</t>
+  </si>
+  <si>
+    <t>2017-12-08 17:48</t>
+  </si>
+  <si>
+    <t>sanjeevansharma@icloud.com</t>
+  </si>
+  <si>
+    <t>2017-12-08 17:50</t>
   </si>
 </sst>
 </file>
@@ -593,10 +811,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:YZ5"/>
+  <dimension ref="A1:YZ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AA1" sqref="AA1"/>
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -683,7 +901,9 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
@@ -1338,70 +1558,124 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>6860</v>
+        <v>6888</v>
       </c>
       <c r="D2">
-        <v>9406</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>890</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2">
+        <v>110018</v>
+      </c>
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2">
-        <v>114410</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2">
-        <v>114410</v>
+        <v>110018</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2">
-        <v>56</v>
+        <v>910.56</v>
       </c>
       <c r="Y2"/>
-      <c r="Z2">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>35</v>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:676">
@@ -1409,173 +1683,80 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>6863</v>
+        <v>6901</v>
       </c>
       <c r="D3">
-        <v>9406</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3">
+        <v>111111</v>
+      </c>
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3">
-        <v>114410</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="T3">
-        <v>114410</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3">
-        <v>1014.65</v>
-      </c>
+        <v>111111</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3"/>
       <c r="W3"/>
       <c r="X3">
-        <v>611.912</v>
+        <v>230.32</v>
       </c>
       <c r="Y3"/>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="Z3"/>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>39</v>
-      </c>
       <c r="AD3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ3" t="s">
         <v>44</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:676">
@@ -1583,109 +1764,92 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>6864</v>
+        <v>6903</v>
       </c>
       <c r="D4">
-        <v>9406</v>
+        <v>11193</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>1784644552</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>740</v>
+        <v>650</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P4">
-        <v>114410</v>
+        <v>607844</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="R4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="T4">
-        <v>114410</v>
+        <v>607844</v>
       </c>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4">
-        <v>735.84</v>
+        <v>448</v>
       </c>
       <c r="Y4"/>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>38</v>
+      <c r="Z4"/>
+      <c r="AA4">
+        <v>11</v>
       </c>
       <c r="AB4" t="s">
         <v>39</v>
       </c>
       <c r="AC4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s">
         <v>41</v>
       </c>
       <c r="AF4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK4" t="s">
         <v>45</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:676">
@@ -1693,76 +1857,3613 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>6865</v>
+        <v>6904</v>
       </c>
       <c r="D5">
-        <v>11191</v>
+        <v>11193</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
       </c>
       <c r="F5">
-        <v>1234567890</v>
+        <v>1784644552</v>
       </c>
       <c r="G5" t="s">
         <v>54</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P5">
-        <v>112233</v>
+        <v>607844</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T5">
-        <v>112233</v>
-      </c>
-      <c r="U5"/>
-      <c r="V5"/>
+        <v>607844</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
       <c r="W5"/>
       <c r="X5">
-        <v>53.36</v>
+        <v>201.6</v>
       </c>
       <c r="Y5"/>
-      <c r="Z5">
+      <c r="Z5"/>
+      <c r="AA5">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:676">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>6913</v>
+      </c>
+      <c r="D6">
+        <v>11193</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>1784644552</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>425</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6">
+        <v>607844</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6">
+        <v>607844</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6">
+        <v>347.2</v>
+      </c>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:676">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>6914</v>
+      </c>
+      <c r="D7">
+        <v>11193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>1784644552</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>325</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7">
+        <v>607844</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <v>607844</v>
+      </c>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7">
+        <v>224</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:676">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>6915</v>
+      </c>
+      <c r="D8">
+        <v>11193</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>1784644552</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>325</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8">
+        <v>607844</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8">
+        <v>607844</v>
+      </c>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8">
+        <v>224</v>
+      </c>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:676">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>6916</v>
+      </c>
+      <c r="D9">
+        <v>11193</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>1784644552</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>325</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9">
+        <v>607844</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9">
+        <v>607844</v>
+      </c>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9">
+        <v>224</v>
+      </c>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:676">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>6917</v>
+      </c>
+      <c r="D10">
+        <v>11193</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>1784644552</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>325</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10">
+        <v>607844</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10">
+        <v>607844</v>
+      </c>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10">
+        <v>224</v>
+      </c>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:676">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>6933</v>
+      </c>
+      <c r="D11">
+        <v>11193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>1784644552</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>650</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11">
+        <v>607844</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11">
+        <v>607844</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11">
+        <v>40</v>
+      </c>
+      <c r="W11"/>
+      <c r="X11">
+        <v>403.2</v>
+      </c>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11">
+        <v>11</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:676">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>6936</v>
+      </c>
+      <c r="D12">
+        <v>11193</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>1784644552</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>650</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12">
+        <v>607844</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12">
+        <v>607844</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12">
+        <v>40</v>
+      </c>
+      <c r="W12"/>
+      <c r="X12">
+        <v>403.2</v>
+      </c>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:676">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>6937</v>
+      </c>
+      <c r="D13">
+        <v>11193</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>1784644552</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>1300</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13">
+        <v>607844</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13">
+        <v>607844</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13">
+        <v>80</v>
+      </c>
+      <c r="W13"/>
+      <c r="X13">
+        <v>806.4</v>
+      </c>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:676">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>6938</v>
+      </c>
+      <c r="D14">
+        <v>11193</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14">
+        <v>1784644552</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>325</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14">
+        <v>607844</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T14">
+        <v>607844</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14">
+        <v>20</v>
+      </c>
+      <c r="W14"/>
+      <c r="X14">
+        <v>201.6</v>
+      </c>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:676">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>6939</v>
+      </c>
+      <c r="D15">
+        <v>11193</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15">
+        <v>1784644552</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>325</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15">
+        <v>607844</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15">
+        <v>607844</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15">
+        <v>20</v>
+      </c>
+      <c r="W15"/>
+      <c r="X15">
+        <v>201.6</v>
+      </c>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:676">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>6940</v>
+      </c>
+      <c r="D16">
+        <v>11193</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16">
+        <v>1784644552</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>825</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16">
+        <v>607844</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16">
+        <v>607844</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16">
+        <v>49.5</v>
+      </c>
+      <c r="W16"/>
+      <c r="X16">
+        <v>498.96</v>
+      </c>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:676">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>6941</v>
+      </c>
+      <c r="D17">
+        <v>11193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>1784644552</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>225</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17">
+        <v>607844</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17">
+        <v>607844</v>
+      </c>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17">
+        <v>218</v>
+      </c>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17">
+        <v>11</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:676">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>6946</v>
+      </c>
+      <c r="D18">
+        <v>9406</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>950</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18">
+        <v>114410</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18">
+        <v>114410</v>
+      </c>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18">
+        <v>856.8</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA18">
+        <v>47</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:676">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>6947</v>
+      </c>
+      <c r="D19">
+        <v>11193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19">
+        <v>1784644552</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>1300</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19">
+        <v>607844</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19">
+        <v>607844</v>
+      </c>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19">
+        <v>896</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA19">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:676">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20">
+        <v>6949</v>
+      </c>
+      <c r="D20">
+        <v>11193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <v>1784644552</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>1625</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20">
+        <v>607844</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" t="s">
+        <v>57</v>
+      </c>
+      <c r="T20">
+        <v>607844</v>
+      </c>
+      <c r="U20" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20">
+        <v>100</v>
+      </c>
+      <c r="W20"/>
+      <c r="X20">
+        <v>1008</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA20">
+        <v>11</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:676">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <v>6950</v>
+      </c>
+      <c r="D21">
+        <v>11193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>1784644552</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>325</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21">
+        <v>607844</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" t="s">
+        <v>57</v>
+      </c>
+      <c r="T21">
+        <v>607844</v>
+      </c>
+      <c r="U21" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21">
+        <v>30</v>
+      </c>
+      <c r="W21"/>
+      <c r="X21">
+        <v>190.4</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA21">
+        <v>11</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:676">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>6951</v>
+      </c>
+      <c r="D22">
+        <v>11193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22">
+        <v>1784644552</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>325</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22">
+        <v>607844</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" t="s">
+        <v>57</v>
+      </c>
+      <c r="T22">
+        <v>607844</v>
+      </c>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22">
+        <v>224</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA22">
+        <v>11</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:676">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>6952</v>
+      </c>
+      <c r="D23">
+        <v>11193</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23">
+        <v>1784644552</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>325</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" t="s">
+        <v>57</v>
+      </c>
+      <c r="P23">
+        <v>607844</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" t="s">
+        <v>57</v>
+      </c>
+      <c r="T23">
+        <v>607844</v>
+      </c>
+      <c r="U23" t="s">
+        <v>90</v>
+      </c>
+      <c r="V23">
+        <v>20</v>
+      </c>
+      <c r="W23"/>
+      <c r="X23">
+        <v>201.6</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA23">
+        <v>11</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:676">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24">
+        <v>6953</v>
+      </c>
+      <c r="D24">
+        <v>11193</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>1784644552</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>325</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" t="s">
+        <v>57</v>
+      </c>
+      <c r="P24">
+        <v>607844</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" t="s">
+        <v>57</v>
+      </c>
+      <c r="T24">
+        <v>607844</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24">
+        <v>20</v>
+      </c>
+      <c r="W24"/>
+      <c r="X24">
+        <v>201.6</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA24">
+        <v>11</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:676">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25">
+        <v>6954</v>
+      </c>
+      <c r="D25">
+        <v>11193</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25">
+        <v>1784644552</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>325</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25">
+        <v>607844</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" t="s">
+        <v>55</v>
+      </c>
+      <c r="S25" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25">
+        <v>607844</v>
+      </c>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA25">
+        <v>11</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:676">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26">
+        <v>6955</v>
+      </c>
+      <c r="D26">
+        <v>11193</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26">
+        <v>1784644552</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>325</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" t="s">
+        <v>57</v>
+      </c>
+      <c r="P26">
+        <v>607844</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26">
+        <v>607844</v>
+      </c>
+      <c r="U26" t="s">
+        <v>85</v>
+      </c>
+      <c r="V26">
+        <v>20</v>
+      </c>
+      <c r="W26"/>
+      <c r="X26">
+        <v>201.6</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA26">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:676">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27">
+        <v>6956</v>
+      </c>
+      <c r="D27">
+        <v>11193</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27">
+        <v>1784644552</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>325</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27">
+        <v>607844</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27">
+        <v>607844</v>
+      </c>
+      <c r="U27" t="s">
+        <v>95</v>
+      </c>
+      <c r="V27">
+        <v>20</v>
+      </c>
+      <c r="W27"/>
+      <c r="X27">
+        <v>201.6</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA27">
+        <v>11</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:676">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28">
+        <v>6957</v>
+      </c>
+      <c r="D28">
+        <v>11193</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28">
+        <v>1784644552</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>325</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28">
+        <v>607844</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" t="s">
+        <v>55</v>
+      </c>
+      <c r="S28" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28">
+        <v>607844</v>
+      </c>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28">
+        <v>224</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA28">
+        <v>11</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:676">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29">
+        <v>6958</v>
+      </c>
+      <c r="D29">
+        <v>11193</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29">
+        <v>1784644552</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>325</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P29">
+        <v>607844</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" t="s">
+        <v>57</v>
+      </c>
+      <c r="T29">
+        <v>607844</v>
+      </c>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29">
+        <v>224</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA29">
+        <v>11</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:676">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>6959</v>
+      </c>
+      <c r="D30">
+        <v>11193</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30">
+        <v>1784644552</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>325</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30">
+        <v>607844</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" t="s">
+        <v>55</v>
+      </c>
+      <c r="S30" t="s">
+        <v>57</v>
+      </c>
+      <c r="T30">
+        <v>607844</v>
+      </c>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30">
+        <v>224</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA30">
+        <v>11</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:676">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31">
+        <v>6960</v>
+      </c>
+      <c r="D31">
+        <v>11193</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31">
+        <v>1784644552</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>325</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" t="s">
+        <v>57</v>
+      </c>
+      <c r="P31">
+        <v>607844</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" t="s">
+        <v>55</v>
+      </c>
+      <c r="S31" t="s">
+        <v>57</v>
+      </c>
+      <c r="T31">
+        <v>607844</v>
+      </c>
+      <c r="U31" t="s">
+        <v>100</v>
+      </c>
+      <c r="V31">
+        <v>0.001</v>
+      </c>
+      <c r="W31"/>
+      <c r="X31">
+        <v>223.9989</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA31">
+        <v>11</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:676">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32">
+        <v>6971</v>
+      </c>
+      <c r="D32">
+        <v>5959</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32" t="s">
+        <v>104</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32">
+        <v>110059</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>104</v>
+      </c>
+      <c r="R32" t="s">
+        <v>104</v>
+      </c>
+      <c r="S32" t="s">
+        <v>105</v>
+      </c>
+      <c r="T32">
+        <v>110059</v>
+      </c>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32">
+        <v>0.12</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:676">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33">
+        <v>6972</v>
+      </c>
+      <c r="D33">
+        <v>5959</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33" t="s">
+        <v>104</v>
+      </c>
+      <c r="N33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33">
+        <v>110059</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>104</v>
+      </c>
+      <c r="R33" t="s">
+        <v>104</v>
+      </c>
+      <c r="S33" t="s">
+        <v>105</v>
+      </c>
+      <c r="T33">
+        <v>110059</v>
+      </c>
+      <c r="U33" t="s">
+        <v>107</v>
+      </c>
+      <c r="V33">
+        <v>0.1</v>
+      </c>
+      <c r="W33"/>
+      <c r="X33">
+        <v>0.108</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:676">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34">
+        <v>6982</v>
+      </c>
+      <c r="D34">
+        <v>11193</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34">
+        <v>1784644552</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>325</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34">
+        <v>607844</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S34" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34">
+        <v>607844</v>
+      </c>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34">
+        <v>224</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA34">
+        <v>11</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:676">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35">
+        <v>6983</v>
+      </c>
+      <c r="D35">
+        <v>11191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35">
+        <v>1234567890</v>
+      </c>
+      <c r="G35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>670</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35">
+        <v>112233</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>113</v>
+      </c>
+      <c r="R35" t="s">
+        <v>113</v>
+      </c>
+      <c r="S35" t="s">
+        <v>114</v>
+      </c>
+      <c r="T35">
+        <v>112233</v>
+      </c>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35">
+        <v>875.84</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:676">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36">
+        <v>6985</v>
+      </c>
+      <c r="D36">
+        <v>9406</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+      <c r="I36">
+        <v>420</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" t="s">
+        <v>75</v>
+      </c>
+      <c r="P36">
+        <v>114410</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>74</v>
+      </c>
+      <c r="R36" t="s">
+        <v>74</v>
+      </c>
+      <c r="S36" t="s">
+        <v>75</v>
+      </c>
+      <c r="T36">
+        <v>114410</v>
+      </c>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36">
+        <v>332.64</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA36">
+        <v>47</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF36" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AG36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:676">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37">
+        <v>6986</v>
+      </c>
+      <c r="D37">
+        <v>9406</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>420</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" t="s">
+        <v>75</v>
+      </c>
+      <c r="P37">
+        <v>114410</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>74</v>
+      </c>
+      <c r="R37" t="s">
+        <v>74</v>
+      </c>
+      <c r="S37" t="s">
+        <v>75</v>
+      </c>
+      <c r="T37">
+        <v>114410</v>
+      </c>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37">
+        <v>332.64</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA37">
+        <v>47</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF37" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" t="s">
-        <v>44</v>
+      <c r="AG37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:676">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38">
+        <v>6987</v>
+      </c>
+      <c r="D38">
+        <v>11193</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38">
+        <v>1784644552</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38">
+        <v>19</v>
+      </c>
+      <c r="I38">
+        <v>1525</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" t="s">
+        <v>57</v>
+      </c>
+      <c r="P38">
+        <v>607844</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>55</v>
+      </c>
+      <c r="R38" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" t="s">
+        <v>57</v>
+      </c>
+      <c r="T38">
+        <v>607844</v>
+      </c>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38">
+        <v>1064</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA38">
+        <v>11</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:676">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39">
+        <v>6988</v>
+      </c>
+      <c r="D39">
+        <v>11193</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39">
+        <v>1784644552</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>650</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P39">
+        <v>607844</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S39" t="s">
+        <v>57</v>
+      </c>
+      <c r="T39">
+        <v>607844</v>
+      </c>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39">
+        <v>448</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA39">
+        <v>11</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:676">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40">
+        <v>6990</v>
+      </c>
+      <c r="D40">
+        <v>11193</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40">
+        <v>1784644552</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>325</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40">
+        <v>607844</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>55</v>
+      </c>
+      <c r="R40" t="s">
+        <v>55</v>
+      </c>
+      <c r="S40" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40">
+        <v>607844</v>
+      </c>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40">
+        <v>224</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA40">
+        <v>11</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:676">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41">
+        <v>6991</v>
+      </c>
+      <c r="D41">
+        <v>11193</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41">
+        <v>1784644552</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>325</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" t="s">
+        <v>57</v>
+      </c>
+      <c r="P41">
+        <v>607844</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>55</v>
+      </c>
+      <c r="R41" t="s">
+        <v>55</v>
+      </c>
+      <c r="S41" t="s">
+        <v>57</v>
+      </c>
+      <c r="T41">
+        <v>607844</v>
+      </c>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41">
+        <v>224</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA41">
+        <v>11</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:676">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42">
+        <v>6992</v>
+      </c>
+      <c r="D42">
+        <v>11193</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42">
+        <v>1784644552</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>325</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" t="s">
+        <v>57</v>
+      </c>
+      <c r="P42">
+        <v>607844</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" t="s">
+        <v>55</v>
+      </c>
+      <c r="S42" t="s">
+        <v>57</v>
+      </c>
+      <c r="T42">
+        <v>607844</v>
+      </c>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42">
+        <v>224</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA42">
+        <v>11</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:676">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43">
+        <v>7010</v>
+      </c>
+      <c r="D43">
+        <v>11191</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43">
+        <v>1234567890</v>
+      </c>
+      <c r="G43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>300</v>
+      </c>
+      <c r="J43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" t="s">
+        <v>112</v>
+      </c>
+      <c r="P43">
+        <v>112233</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>34</v>
+      </c>
+      <c r="R43" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43" t="s">
+        <v>112</v>
+      </c>
+      <c r="T43">
+        <v>112233</v>
+      </c>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43">
+        <v>319.2</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +5487,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E1" sqref="E1"/>
@@ -1799,16 +5500,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1816,16 +5517,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>7684</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1833,16 +5534,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C3">
-        <v>9406</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1850,16 +5551,84 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C4">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>4286</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6">
+        <v>5959</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7">
+        <v>9406</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8">
         <v>11191</v>
       </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +5652,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="V1" sqref="V1"/>
@@ -1891,7 +5660,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1956,156 +5725,293 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C2">
-        <v>6853</v>
+        <v>6902</v>
       </c>
       <c r="D2">
+        <v>4286</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
       <c r="I2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="K2">
-        <v>257.6</v>
+        <v>193</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2">
+        <v>110027</v>
+      </c>
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2">
-        <v>111111</v>
-      </c>
-      <c r="R2" t="s">
-        <v>69</v>
-      </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="U2">
-        <v>111111</v>
+        <v>110027</v>
       </c>
       <c r="V2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="C3">
-        <v>6866</v>
+        <v>6935</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4286</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="K3">
-        <v>5.6</v>
+        <v>282.24</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q3">
+        <v>110027</v>
+      </c>
+      <c r="R3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3">
-        <v>111111</v>
-      </c>
-      <c r="R3" t="s">
-        <v>69</v>
-      </c>
       <c r="S3" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="U3">
-        <v>111111</v>
+        <v>110027</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4">
+        <v>7012</v>
+      </c>
+      <c r="D4">
+        <v>7344</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4">
+        <v>25.24</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4">
+        <v>110059</v>
+      </c>
+      <c r="R4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4">
+        <v>110059</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5">
+        <v>7013</v>
+      </c>
+      <c r="D5">
+        <v>7344</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5">
+        <v>25.24</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5">
+        <v>110059</v>
+      </c>
+      <c r="R5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5">
+        <v>110059</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
